--- a/data/trans_orig/P23_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P23_R-Dificultad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>262733</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>239282</v>
+        <v>239049</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>285630</v>
+        <v>286588</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4497765305467614</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4096311993767948</v>
+        <v>0.4092318967326065</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4889741155073284</v>
+        <v>0.4906143592187192</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>213</v>
@@ -764,19 +764,19 @@
         <v>222256</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197430</v>
+        <v>197199</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>248963</v>
+        <v>250060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.24097105274726</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2140548679968165</v>
+        <v>0.2138048636388988</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.26992772190654</v>
+        <v>0.2711165498725199</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>469</v>
@@ -785,19 +785,19 @@
         <v>484989</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>448667</v>
+        <v>449046</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>518984</v>
+        <v>522568</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3219361951035273</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2978261513506317</v>
+        <v>0.2980773354555659</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3445025056700538</v>
+        <v>0.34688142096854</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>321408</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298511</v>
+        <v>297553</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>344859</v>
+        <v>345092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5502234694532385</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5110258844926717</v>
+        <v>0.509385640781281</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5903688006232054</v>
+        <v>0.5907681032673939</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>672</v>
@@ -835,19 +835,19 @@
         <v>700077</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>673370</v>
+        <v>672273</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>724903</v>
+        <v>725134</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7590289472527401</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7300722780934598</v>
+        <v>0.7288834501274799</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7859451320031833</v>
+        <v>0.7861951363611012</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>990</v>
@@ -856,19 +856,19 @@
         <v>1021485</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>987490</v>
+        <v>983906</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1057807</v>
+        <v>1057428</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6780638048964727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6554974943299461</v>
+        <v>0.6531185790314598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7021738486493683</v>
+        <v>0.701922664544434</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>493436</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>458989</v>
+        <v>459579</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>526068</v>
+        <v>524122</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4577779656731427</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4258200969568312</v>
+        <v>0.4263678841056449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4880518110293459</v>
+        <v>0.4862465339149549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>270</v>
@@ -981,19 +981,19 @@
         <v>277955</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250620</v>
+        <v>248489</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>308712</v>
+        <v>305713</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2628321410016893</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2369841553796618</v>
+        <v>0.2349692224530257</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2919154305276056</v>
+        <v>0.2890798403431619</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>751</v>
@@ -1002,19 +1002,19 @@
         <v>771391</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>729649</v>
+        <v>727230</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>818799</v>
+        <v>819841</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.361234214949104</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3416866327470729</v>
+        <v>0.3405541776181472</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.38343489505881</v>
+        <v>0.383922644878612</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>584458</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>551826</v>
+        <v>553772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>618905</v>
+        <v>618315</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5422220343268573</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5119481889706543</v>
+        <v>0.5137534660850452</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.574179903043169</v>
+        <v>0.5736321158943553</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>758</v>
@@ -1052,19 +1052,19 @@
         <v>779583</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>748826</v>
+        <v>751825</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>806918</v>
+        <v>809049</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7371678589983107</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7080845694723943</v>
+        <v>0.7109201596568377</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7630158446203381</v>
+        <v>0.7650307775469741</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1332</v>
@@ -1073,19 +1073,19 @@
         <v>1364041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1316633</v>
+        <v>1315591</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1405783</v>
+        <v>1408202</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.638765785050896</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.61656510494119</v>
+        <v>0.6160773551213881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6583133672529272</v>
+        <v>0.6594458223818529</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>455526</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>423836</v>
+        <v>426120</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>486580</v>
+        <v>489531</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4061414081702611</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.377887323946771</v>
+        <v>0.379923337117953</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4338290947181871</v>
+        <v>0.4364600563134361</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>247</v>
@@ -1198,19 +1198,19 @@
         <v>248842</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>222741</v>
+        <v>222326</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>275170</v>
+        <v>277195</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2503588669860612</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2240989629498773</v>
+        <v>0.2236810871080725</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2768473592432348</v>
+        <v>0.2788849676058476</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>694</v>
@@ -1219,19 +1219,19 @@
         <v>704368</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>662119</v>
+        <v>660557</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>751587</v>
+        <v>746920</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3329502204312904</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3129797585027129</v>
+        <v>0.3122410766849504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3552705070778781</v>
+        <v>0.3530645815191479</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>666068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>635014</v>
+        <v>632063</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>697758</v>
+        <v>695474</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5938585918297389</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5661709052818127</v>
+        <v>0.5635399436865638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.622112676053229</v>
+        <v>0.620076662882047</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>735</v>
@@ -1269,19 +1269,19 @@
         <v>745098</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>718770</v>
+        <v>716745</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>771199</v>
+        <v>771614</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7496411330139388</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7231526407567653</v>
+        <v>0.7211150323941524</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7759010370501229</v>
+        <v>0.7763189128919273</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1391</v>
@@ -1290,19 +1290,19 @@
         <v>1411166</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1363947</v>
+        <v>1368614</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1453415</v>
+        <v>1454977</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6670497795687096</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6447294929221219</v>
+        <v>0.6469354184808521</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6870202414972871</v>
+        <v>0.6877589233150496</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>160333</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>139747</v>
+        <v>140056</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181655</v>
+        <v>181316</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3585252886104499</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3124924755664967</v>
+        <v>0.3131838764873672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.40620548919935</v>
+        <v>0.4054464570474414</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -1415,19 +1415,19 @@
         <v>98621</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>81594</v>
+        <v>82961</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>116104</v>
+        <v>117644</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2890771740944864</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2391691676815192</v>
+        <v>0.2431751949454455</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3403230259922761</v>
+        <v>0.3448384965649477</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>250</v>
@@ -1436,19 +1436,19 @@
         <v>258953</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>234271</v>
+        <v>234365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>285757</v>
+        <v>288065</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3284719419774538</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2971626594528468</v>
+        <v>0.2972824122512871</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3624705819025796</v>
+        <v>0.3653987317134821</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>286867</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>265545</v>
+        <v>265884</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>307453</v>
+        <v>307144</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6414747113895501</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.59379451080065</v>
+        <v>0.5945535429525587</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6875075244335034</v>
+        <v>0.6868161235126328</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>240</v>
@@ -1486,19 +1486,19 @@
         <v>242537</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>225054</v>
+        <v>223514</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>259564</v>
+        <v>258197</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7109228259055136</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6596769740077242</v>
+        <v>0.6551615034350523</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7608308323184809</v>
+        <v>0.7568248050545545</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>525</v>
@@ -1507,19 +1507,19 @@
         <v>529405</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>502601</v>
+        <v>500293</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>554087</v>
+        <v>553993</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6715280580225462</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6375294180974204</v>
+        <v>0.6346012682865175</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.702837340547153</v>
+        <v>0.7027175877487128</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>1372027</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1315586</v>
+        <v>1318309</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1431887</v>
+        <v>1429360</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4246672714864024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4071976192456126</v>
+        <v>0.4080404378962851</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4431949144082901</v>
+        <v>0.4424127273418215</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>829</v>
@@ -1632,19 +1632,19 @@
         <v>847673</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>797230</v>
+        <v>799947</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>893988</v>
+        <v>899621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2557107518504707</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2404939921378236</v>
+        <v>0.2413136154849919</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.269682228652291</v>
+        <v>0.2713813180235975</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2164</v>
@@ -1653,19 +1653,19 @@
         <v>2219701</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2140952</v>
+        <v>2139954</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2299523</v>
+        <v>2296591</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3391031302272738</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3270726556269939</v>
+        <v>0.326920209152795</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.351297508331298</v>
+        <v>0.3508496279964811</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>1858802</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1798942</v>
+        <v>1801469</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1915243</v>
+        <v>1912520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5753327285135976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5568050855917099</v>
+        <v>0.5575872726581786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5928023807543876</v>
+        <v>0.591959562103715</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2405</v>
@@ -1703,19 +1703,19 @@
         <v>2467296</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2420981</v>
+        <v>2415348</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2517739</v>
+        <v>2515022</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7442892481495293</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7303177713477094</v>
+        <v>0.7286186819764026</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7595060078621765</v>
+        <v>0.7586863845150086</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4238</v>
@@ -1724,19 +1724,19 @@
         <v>4326097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4246275</v>
+        <v>4249207</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4404846</v>
+        <v>4405844</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6608968697727262</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6487024916687021</v>
+        <v>0.649150372003519</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6729273443730061</v>
+        <v>0.6730797908472046</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>498316</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>464831</v>
+        <v>463025</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>531629</v>
+        <v>530432</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4778155377524907</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4457081042107641</v>
+        <v>0.4439759420209323</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5097580824606204</v>
+        <v>0.5086103445798575</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>324</v>
@@ -2089,19 +2089,19 @@
         <v>357436</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>326502</v>
+        <v>324931</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>388592</v>
+        <v>389127</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3191596767799799</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2915380683580347</v>
+        <v>0.2901352712177138</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3469793458833265</v>
+        <v>0.3474575402877205</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>792</v>
@@ -2110,19 +2110,19 @@
         <v>855752</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>803308</v>
+        <v>808626</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>899358</v>
+        <v>904082</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3956625701332125</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3714148771702671</v>
+        <v>0.3738736234876381</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4158238780438592</v>
+        <v>0.4180080659883319</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>544589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>511276</v>
+        <v>512473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>578074</v>
+        <v>579880</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5221844622475093</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4902419175393798</v>
+        <v>0.4913896554201424</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5542918957892359</v>
+        <v>0.5560240579790676</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>707</v>
@@ -2160,19 +2160,19 @@
         <v>762492</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>731336</v>
+        <v>730801</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>793426</v>
+        <v>794997</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6808403232200201</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6530206541166734</v>
+        <v>0.6525424597122795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7084619316419652</v>
+        <v>0.7098647287822861</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1216</v>
@@ -2181,19 +2181,19 @@
         <v>1307081</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1263475</v>
+        <v>1258751</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1359525</v>
+        <v>1354207</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6043374298667875</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5841761219561408</v>
+        <v>0.5819919340116683</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6285851228297329</v>
+        <v>0.6261263765123619</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>405733</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>376239</v>
+        <v>373737</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>438948</v>
+        <v>437444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.415253722812332</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3850672631545569</v>
+        <v>0.3825062433479781</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4492479026512639</v>
+        <v>0.4477086122418766</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>268</v>
@@ -2306,19 +2306,19 @@
         <v>293716</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>263323</v>
+        <v>264712</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>326527</v>
+        <v>322599</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2684143757824651</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.240639468412577</v>
+        <v>0.2419091848584042</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2983995086420632</v>
+        <v>0.2948093922840748</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>653</v>
@@ -2327,19 +2327,19 @@
         <v>699449</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>657302</v>
+        <v>655705</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>745382</v>
+        <v>741870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3376802037619277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3173323797974181</v>
+        <v>0.3165617183732006</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.35985604509332</v>
+        <v>0.3581601881614884</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>571340</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>538125</v>
+        <v>539629</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>600834</v>
+        <v>603336</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.584746277187668</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5507520973487361</v>
+        <v>0.5522913877581235</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6149327368454429</v>
+        <v>0.6174937566520219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>752</v>
@@ -2377,19 +2377,19 @@
         <v>800546</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>767735</v>
+        <v>771663</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>830939</v>
+        <v>829550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7315856242175349</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7016004913579368</v>
+        <v>0.7051906077159248</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.759360531587423</v>
+        <v>0.7580908151415958</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1291</v>
@@ -2398,19 +2398,19 @@
         <v>1371886</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1325953</v>
+        <v>1329465</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1414033</v>
+        <v>1415630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6623197962380724</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6401439549066801</v>
+        <v>0.6418398118385118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6826676202025821</v>
+        <v>0.6834382816267995</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>284250</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>257390</v>
+        <v>257488</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>313811</v>
+        <v>315470</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.321144545966239</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2907981720938205</v>
+        <v>0.2909093171588791</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3545429337585175</v>
+        <v>0.3564165897783039</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>208</v>
@@ -2523,19 +2523,19 @@
         <v>219550</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>194049</v>
+        <v>191646</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245628</v>
+        <v>245217</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2512545692181835</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2220710135359629</v>
+        <v>0.2193215495822909</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.281098343502368</v>
+        <v>0.280628347141581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>471</v>
@@ -2544,19 +2544,19 @@
         <v>503800</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>464623</v>
+        <v>465844</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>546690</v>
+        <v>546757</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2864240829633747</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2641508760948207</v>
+        <v>0.264845253939429</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3108086807577735</v>
+        <v>0.3108466115816371</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>600865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>571304</v>
+        <v>569645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>627725</v>
+        <v>627627</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.678855454033761</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6454570662414821</v>
+        <v>0.6435834102216962</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7092018279061795</v>
+        <v>0.7090906828411211</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>611</v>
@@ -2594,19 +2594,19 @@
         <v>654264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>628186</v>
+        <v>628597</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>679765</v>
+        <v>682168</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7487454307818165</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7189016564976319</v>
+        <v>0.7193716528584188</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7779289864640367</v>
+        <v>0.7806784504177074</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1178</v>
@@ -2615,19 +2615,19 @@
         <v>1255129</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1212239</v>
+        <v>1212172</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1294306</v>
+        <v>1293085</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7135759170366253</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6891913192422268</v>
+        <v>0.6891533884183629</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7358491239051793</v>
+        <v>0.7351547460605712</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>160199</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>137285</v>
+        <v>141033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180884</v>
+        <v>184294</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3184721566896592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2729209134452562</v>
+        <v>0.2803702437686996</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3595945294978452</v>
+        <v>0.3663732810034489</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -2740,19 +2740,19 @@
         <v>103400</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>86530</v>
+        <v>86989</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124590</v>
+        <v>123449</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2283883534724555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.19112643499659</v>
+        <v>0.1921412938318731</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2751941968662394</v>
+        <v>0.2726742332710871</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>244</v>
@@ -2761,19 +2761,19 @@
         <v>263598</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>234648</v>
+        <v>234555</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>291445</v>
+        <v>292360</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2758001280357116</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2455096803813455</v>
+        <v>0.2454127834633461</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3049361498336279</v>
+        <v>0.3058930014703138</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>342824</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>322139</v>
+        <v>318729</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>365738</v>
+        <v>361990</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6815278433103408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6404054705021558</v>
+        <v>0.6336267189965513</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7270790865547441</v>
+        <v>0.7196297562313005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>316</v>
@@ -2811,19 +2811,19 @@
         <v>349336</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>328146</v>
+        <v>329287</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>366206</v>
+        <v>365747</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7716116465275445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7248058031337606</v>
+        <v>0.7273257667289139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.80887356500341</v>
+        <v>0.8078587061681269</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>629</v>
@@ -2832,19 +2832,19 @@
         <v>692160</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>664313</v>
+        <v>663398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>721110</v>
+        <v>721203</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7241998719642884</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6950638501663721</v>
+        <v>0.6941069985296863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7544903196186545</v>
+        <v>0.7545872165366538</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>1348498</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1287076</v>
+        <v>1287902</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1409047</v>
+        <v>1408680</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3956726014831206</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3776503353224647</v>
+        <v>0.3778927840696345</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4134386681803922</v>
+        <v>0.4133311021393495</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>896</v>
@@ -2957,19 +2957,19 @@
         <v>974101</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>917768</v>
+        <v>918029</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1028664</v>
+        <v>1033238</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2751122470243978</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2592023110691608</v>
+        <v>0.2592760611043072</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2905223232143843</v>
+        <v>0.2918140061620326</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2160</v>
@@ -2978,19 +2978,19 @@
         <v>2322599</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2243071</v>
+        <v>2238209</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2401814</v>
+        <v>2397857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3342419318084885</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3227971915325938</v>
+        <v>0.3220975325609256</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3456416750963739</v>
+        <v>0.3450721460828985</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>2059618</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1999069</v>
+        <v>1999436</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2121040</v>
+        <v>2120214</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6043273985168794</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5865613318196078</v>
+        <v>0.5866688978606505</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6223496646775353</v>
+        <v>0.6221072159303654</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2386</v>
@@ -3028,19 +3028,19 @@
         <v>2566639</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2512076</v>
+        <v>2507502</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2622972</v>
+        <v>2622711</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7248877529756022</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7094776767856155</v>
+        <v>0.7081859938379673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7407976889308387</v>
+        <v>0.7407239388956927</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4314</v>
@@ -3049,19 +3049,19 @@
         <v>4626257</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4547042</v>
+        <v>4550999</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4705785</v>
+        <v>4710647</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6657580681915115</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.654358324903626</v>
+        <v>0.6549278539171015</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6772028084674061</v>
+        <v>0.6779024674390746</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>495545</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>462736</v>
+        <v>461438</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>528723</v>
+        <v>527888</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4393137113922476</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4102279747287825</v>
+        <v>0.4090771646449252</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4687276560306212</v>
+        <v>0.4679869326192085</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>386</v>
@@ -3414,19 +3414,19 @@
         <v>399338</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>366048</v>
+        <v>365380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>435217</v>
+        <v>429395</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3173247249100751</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2908719500135573</v>
+        <v>0.2903410532927776</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.345835119570337</v>
+        <v>0.341209190457941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>844</v>
@@ -3435,19 +3435,19 @@
         <v>894883</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>847047</v>
+        <v>846100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>947332</v>
+        <v>939854</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3749849730992047</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3549405133759231</v>
+        <v>0.3545434010266084</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3969628430617727</v>
+        <v>0.3938295595902666</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>632452</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>599274</v>
+        <v>600109</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665261</v>
+        <v>666559</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5606862886077524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5312723439693787</v>
+        <v>0.5320130673807911</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5897720252712175</v>
+        <v>0.5909228353550747</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>801</v>
@@ -3485,19 +3485,19 @@
         <v>859114</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>823235</v>
+        <v>829057</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>892404</v>
+        <v>893072</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6826752750899249</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6541648804296633</v>
+        <v>0.6587908095420589</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7091280499864429</v>
+        <v>0.7096589467072224</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1409</v>
@@ -3506,19 +3506,19 @@
         <v>1491566</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1439117</v>
+        <v>1446595</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1539402</v>
+        <v>1540349</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6250150269007952</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6030371569382272</v>
+        <v>0.6061704404097333</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6450594866240766</v>
+        <v>0.6454565989733914</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>329152</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>301761</v>
+        <v>300046</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>358510</v>
+        <v>357770</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3621727668998599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.332033671919474</v>
+        <v>0.3301472714116381</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3944767692808826</v>
+        <v>0.3936626124475534</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>255</v>
@@ -3631,19 +3631,19 @@
         <v>261838</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235767</v>
+        <v>235478</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>290746</v>
+        <v>290685</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2609932976802994</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2350066778356892</v>
+        <v>0.234718284825258</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2898080542537183</v>
+        <v>0.2897475758713009</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>566</v>
@@ -3652,19 +3652,19 @@
         <v>590989</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>552056</v>
+        <v>552821</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>633123</v>
+        <v>630735</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3090851118207631</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2887230858592384</v>
+        <v>0.2891232466399729</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3311207937711675</v>
+        <v>0.329871747863713</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>579673</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>550315</v>
+        <v>551055</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>607064</v>
+        <v>608779</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6378272331001401</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6055232307191173</v>
+        <v>0.6063373875524466</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6679663280805258</v>
+        <v>0.6698527285883619</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>693</v>
@@ -3702,19 +3702,19 @@
         <v>741397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>712489</v>
+        <v>712550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>767468</v>
+        <v>767757</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7390067023197007</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7101919457462816</v>
+        <v>0.710252424128699</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7649933221643108</v>
+        <v>0.765281715174742</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1263</v>
@@ -3723,19 +3723,19 @@
         <v>1321071</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1278937</v>
+        <v>1281325</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1360004</v>
+        <v>1359239</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.690914888179237</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6688792062288323</v>
+        <v>0.6701282521362868</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7112769141407614</v>
+        <v>0.7108767533600271</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>226007</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>202763</v>
+        <v>201499</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>255652</v>
+        <v>255603</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2750067027001034</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2467236757988666</v>
+        <v>0.2451854528427467</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3110787894544071</v>
+        <v>0.3110192979957347</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>160</v>
@@ -3848,19 +3848,19 @@
         <v>164337</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>141521</v>
+        <v>140883</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>186526</v>
+        <v>188316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.213433611816756</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1838007753723148</v>
+        <v>0.1829718522465923</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.242251537331848</v>
+        <v>0.244576184411453</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>369</v>
@@ -3869,19 +3869,19 @@
         <v>390344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>355148</v>
+        <v>356952</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>427035</v>
+        <v>428867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2452230334897625</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2231118926399754</v>
+        <v>0.2242454099228838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2682731793042061</v>
+        <v>0.2694240562357209</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>595816</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>566171</v>
+        <v>566220</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>619060</v>
+        <v>620324</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7249932972998966</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6889212105455929</v>
+        <v>0.6889807020042653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7532763242011334</v>
+        <v>0.7548145471572535</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>567</v>
@@ -3919,19 +3919,19 @@
         <v>605633</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>583444</v>
+        <v>581654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>628449</v>
+        <v>629087</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.786566388183244</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7577484626681521</v>
+        <v>0.755423815588547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8161992246276852</v>
+        <v>0.8170281477534077</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1143</v>
@@ -3940,19 +3940,19 @@
         <v>1201449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1164758</v>
+        <v>1162926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1236645</v>
+        <v>1234841</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7547769665102375</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7317268206957936</v>
+        <v>0.730575943764279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7768881073600246</v>
+        <v>0.7757545900771156</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>129977</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>111577</v>
+        <v>111783</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>151581</v>
+        <v>151176</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2565165792458775</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2202036176335387</v>
+        <v>0.2206090074450874</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2991526755909618</v>
+        <v>0.2983538815696032</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>89</v>
@@ -4065,19 +4065,19 @@
         <v>93085</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76135</v>
+        <v>76029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>112806</v>
+        <v>111845</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.190086702093598</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1554738289440674</v>
+        <v>0.1552568860955784</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2303592563980803</v>
+        <v>0.2283967960871018</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>209</v>
@@ -4086,19 +4086,19 @@
         <v>223062</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>198652</v>
+        <v>198581</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>251858</v>
+        <v>249111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2238684472561728</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1993703831643148</v>
+        <v>0.1992984168540272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2527686722948783</v>
+        <v>0.2500115258872637</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>376724</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>355120</v>
+        <v>355525</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>395124</v>
+        <v>394918</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7434834207541225</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7008473244090385</v>
+        <v>0.7016461184303968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7797963823664613</v>
+        <v>0.7793909925549126</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>366</v>
@@ -4136,19 +4136,19 @@
         <v>396613</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>376892</v>
+        <v>377853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>413563</v>
+        <v>413669</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.809913297906402</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7696407436019196</v>
+        <v>0.7716032039128982</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8445261710559328</v>
+        <v>0.8447431139044216</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>717</v>
@@ -4157,19 +4157,19 @@
         <v>773336</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>744540</v>
+        <v>747287</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>797746</v>
+        <v>797817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7761315527438272</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.747231327705122</v>
+        <v>0.7499884741127363</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8006296168356852</v>
+        <v>0.8007015831459728</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>1180680</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1125375</v>
+        <v>1124906</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1237627</v>
+        <v>1234165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3508347425127777</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3344008870092833</v>
+        <v>0.3342614801509408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3677562848749368</v>
+        <v>0.3667276700279216</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>890</v>
@@ -4282,19 +4282,19 @@
         <v>918598</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>864705</v>
+        <v>867208</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>969892</v>
+        <v>974772</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2608649573238696</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2455604774936274</v>
+        <v>0.246271286148766</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2754314442297522</v>
+        <v>0.2768172627866574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1988</v>
@@ -4303,19 +4303,19 @@
         <v>2099278</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2023477</v>
+        <v>2016445</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2180132</v>
+        <v>2177175</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3048307825065372</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2938239316664438</v>
+        <v>0.2928028265831029</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3165714085790814</v>
+        <v>0.3161419312923099</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>2184666</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2127719</v>
+        <v>2131181</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2239971</v>
+        <v>2240440</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6491652574872223</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6322437151250632</v>
+        <v>0.6332723299720786</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6655991129907167</v>
+        <v>0.6657385198490593</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2427</v>
@@ -4353,19 +4353,19 @@
         <v>2602756</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2551462</v>
+        <v>2546582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2656649</v>
+        <v>2654146</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7391350426761304</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7245685557702478</v>
+        <v>0.7231827372133426</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7544395225063729</v>
+        <v>0.7537287138512341</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4532</v>
@@ -4374,19 +4374,19 @@
         <v>4787422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4706568</v>
+        <v>4709525</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4863223</v>
+        <v>4870255</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6951692174934627</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6834285914209185</v>
+        <v>0.6838580687076902</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7061760683335562</v>
+        <v>0.7071971734168971</v>
       </c>
     </row>
     <row r="18">
